--- a/mixs-templates/extensions_only/Agriculture.xlsx
+++ b/mixs-templates/extensions_only/Agriculture.xlsx
@@ -1224,9 +1224,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="11">
     <dataValidation sqref="U2:U1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"brackish,canal,collected rainwater,ditch,estuary,freshwater,lake,manmade,melt pond,municipal,natural,pond,reservior,river,saline,storage tank,stream,well"</formula1>
+    </dataValidation>
+    <dataValidation sqref="Y2:Y1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="BH2:BH1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"commensalism,free living,mutualism,parasitism,symbiotic"</formula1>
@@ -1239,6 +1242,9 @@
     </dataValidation>
     <dataValidation sqref="DF2:DF1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"manually edited,none"</formula1>
+    </dataValidation>
+    <dataValidation sqref="DI2:DI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
     </dataValidation>
     <dataValidation sqref="DT2:DT1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"A horizon,B horizon,C horizon,E horizon,O horizon,Permafrost,R layer"</formula1>
